--- a/data/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
+++ b/data/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -800,7 +800,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -909,7 +909,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10946,7 +10946,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11519,7 +11519,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11765,7 +11765,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11894,7 +11894,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12140,7 +12140,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12632,7 +12632,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12757,7 +12757,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12878,7 +12878,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13249,7 +13249,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13327,7 +13327,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13659,7 +13659,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13862,7 +13862,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13948,7 +13948,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13987,7 +13987,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14065,7 +14065,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14600,7 +14600,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14686,7 +14686,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -14846,7 +14846,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14889,7 +14889,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14975,7 +14975,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15053,7 +15053,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15135,7 +15135,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15260,7 +15260,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15424,7 +15424,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15627,7 +15627,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15670,7 +15670,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15752,7 +15752,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15830,7 +15830,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15998,7 +15998,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -16162,7 +16162,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16244,7 +16244,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -16494,7 +16494,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -16572,7 +16572,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -16611,7 +16611,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -16654,7 +16654,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16779,7 +16779,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -16900,7 +16900,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -16986,7 +16986,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17064,7 +17064,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17232,7 +17232,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17271,7 +17271,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -17724,7 +17724,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17767,7 +17767,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -17806,7 +17806,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17849,7 +17849,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -17970,7 +17970,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18134,7 +18134,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18173,7 +18173,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -18302,7 +18302,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -18462,7 +18462,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -18630,7 +18630,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -18669,7 +18669,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -18837,7 +18837,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -18876,7 +18876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -19083,7 +19083,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -19243,7 +19243,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -19368,7 +19368,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -19411,7 +19411,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -19489,7 +19489,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -19532,7 +19532,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -19575,7 +19575,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -19618,7 +19618,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -19657,7 +19657,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -19696,7 +19696,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -19735,7 +19735,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -19821,7 +19821,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -19903,7 +19903,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -20067,7 +20067,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -20153,7 +20153,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -20231,7 +20231,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -20270,7 +20270,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -20313,7 +20313,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -20356,7 +20356,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -20399,7 +20399,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -20438,7 +20438,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -20481,7 +20481,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -20645,7 +20645,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -20688,7 +20688,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -20727,7 +20727,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -20766,7 +20766,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -20805,7 +20805,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -20930,7 +20930,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -20973,7 +20973,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -21051,7 +21051,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -21094,7 +21094,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -21137,7 +21137,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -21297,7 +21297,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -21422,7 +21422,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -21465,7 +21465,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -21543,7 +21543,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -21586,7 +21586,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -21672,7 +21672,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -21711,7 +21711,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -21750,7 +21750,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -21914,7 +21914,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -21957,7 +21957,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -22078,7 +22078,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -22121,7 +22121,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -22203,7 +22203,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -22242,7 +22242,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -22281,7 +22281,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -22324,7 +22324,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -22410,7 +22410,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -22449,7 +22449,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -22699,7 +22699,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -22738,7 +22738,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -22859,7 +22859,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -22902,7 +22902,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -22945,7 +22945,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -23027,7 +23027,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -23105,7 +23105,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -23148,7 +23148,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -23234,7 +23234,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -23312,7 +23312,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -23394,7 +23394,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -23437,7 +23437,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -23640,7 +23640,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -23683,7 +23683,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -23726,7 +23726,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -23847,7 +23847,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -23886,7 +23886,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -23929,7 +23929,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -24015,7 +24015,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -24054,7 +24054,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -24097,7 +24097,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -24175,7 +24175,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -24218,7 +24218,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -24343,7 +24343,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -24382,7 +24382,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -24464,7 +24464,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -24507,7 +24507,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -24546,7 +24546,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -24589,7 +24589,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -24667,7 +24667,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -24710,7 +24710,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -24753,7 +24753,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -24835,7 +24835,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -24874,7 +24874,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -24913,7 +24913,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -24999,7 +24999,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -25038,7 +25038,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -25081,7 +25081,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -25288,7 +25288,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -25327,7 +25327,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -25366,7 +25366,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -25448,7 +25448,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -25491,7 +25491,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -25530,7 +25530,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -25573,7 +25573,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -25651,7 +25651,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -25694,7 +25694,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -25737,7 +25737,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -25819,7 +25819,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -25858,7 +25858,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -25940,7 +25940,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -26022,7 +26022,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -26065,7 +26065,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -26229,7 +26229,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -26272,7 +26272,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -26311,7 +26311,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -26389,7 +26389,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -26432,7 +26432,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -26514,7 +26514,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -26635,7 +26635,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -26678,7 +26678,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -26721,7 +26721,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -26764,7 +26764,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -26842,7 +26842,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -26924,7 +26924,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -26967,7 +26967,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -27006,7 +27006,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -27049,7 +27049,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -27127,7 +27127,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -27170,7 +27170,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -27256,7 +27256,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -27295,7 +27295,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -27334,7 +27334,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -27373,7 +27373,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -27459,7 +27459,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -27498,7 +27498,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -27541,7 +27541,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -27619,7 +27619,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -27662,7 +27662,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -27705,7 +27705,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -27748,7 +27748,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -27787,7 +27787,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -27826,7 +27826,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -27865,7 +27865,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -27951,7 +27951,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -27990,7 +27990,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -28033,7 +28033,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -28111,7 +28111,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -28154,7 +28154,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -28197,7 +28197,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -28240,7 +28240,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -28279,7 +28279,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -28318,7 +28318,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -28357,7 +28357,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -28400,7 +28400,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -28443,7 +28443,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -28486,7 +28486,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -28525,7 +28525,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -28646,7 +28646,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -28814,7 +28814,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -28853,7 +28853,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -28892,7 +28892,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -28935,7 +28935,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -28978,7 +28978,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -29060,7 +29060,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -29103,7 +29103,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -29181,7 +29181,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -29224,7 +29224,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -29267,7 +29267,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -29310,7 +29310,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -29349,7 +29349,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -29388,7 +29388,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -29427,7 +29427,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -29470,7 +29470,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -29513,7 +29513,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -29556,7 +29556,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -29595,7 +29595,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -29638,7 +29638,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -29716,7 +29716,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -29759,7 +29759,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -29802,7 +29802,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -29845,7 +29845,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -29884,7 +29884,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -29923,7 +29923,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -30005,7 +30005,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -30048,7 +30048,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -30091,7 +30091,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -30130,7 +30130,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -30173,7 +30173,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -30251,7 +30251,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -30294,7 +30294,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -30337,7 +30337,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -30380,7 +30380,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -30419,7 +30419,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -30458,7 +30458,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -30497,7 +30497,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -30583,7 +30583,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -30626,7 +30626,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -30665,7 +30665,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -30708,7 +30708,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -30786,7 +30786,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -30829,7 +30829,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -30872,7 +30872,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -30915,7 +30915,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -30954,7 +30954,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -30993,7 +30993,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -31032,7 +31032,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -31075,7 +31075,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -31118,7 +31118,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -31157,7 +31157,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -31200,7 +31200,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -31278,7 +31278,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -31364,7 +31364,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C774" s="2" t="n">
@@ -31407,7 +31407,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -31446,7 +31446,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -31485,7 +31485,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -31524,7 +31524,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -31567,7 +31567,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -31610,7 +31610,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -31692,7 +31692,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -31735,7 +31735,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C783" s="2" t="n">
@@ -31813,7 +31813,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -31899,7 +31899,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C787" s="2" t="n">
@@ -31942,7 +31942,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -31981,7 +31981,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -32059,7 +32059,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -32102,7 +32102,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -32188,7 +32188,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C794" s="2" t="n">
@@ -32227,7 +32227,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C795" s="2" t="n">
@@ -32270,7 +32270,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C796" s="2" t="n">
@@ -32348,7 +32348,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -32391,7 +32391,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -32434,7 +32434,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -32477,7 +32477,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -32555,7 +32555,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C803" s="2" t="n">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C804" s="2" t="n">
@@ -32637,7 +32637,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -32680,7 +32680,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C806" s="2" t="n">
@@ -32719,7 +32719,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C807" s="2" t="n">
@@ -32762,7 +32762,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C808" s="2" t="n">
@@ -32840,7 +32840,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C810" s="2" t="n">
@@ -32883,7 +32883,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C811" s="2" t="n">
@@ -32926,7 +32926,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C812" s="2" t="n">
@@ -32969,7 +32969,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C813" s="2" t="n">
@@ -33008,7 +33008,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C814" s="2" t="n">
@@ -33047,7 +33047,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C815" s="2" t="n">
@@ -33086,7 +33086,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C816" s="2" t="n">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C817" s="2" t="n">
@@ -33172,7 +33172,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C818" s="2" t="n">
@@ -33211,7 +33211,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C819" s="2" t="n">
@@ -33254,7 +33254,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C820" s="2" t="n">
@@ -33332,7 +33332,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C822" s="2" t="n">
@@ -33375,7 +33375,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C823" s="2" t="n">
@@ -33418,7 +33418,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C824" s="2" t="n">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C825" s="2" t="n">
@@ -33500,7 +33500,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C826" s="2" t="n">
@@ -33539,7 +33539,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C827" s="2" t="n">
@@ -33578,7 +33578,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C828" s="2" t="n">
@@ -33621,7 +33621,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C829" s="2" t="n">
@@ -33664,7 +33664,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C830" s="2" t="n">
@@ -33703,7 +33703,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C831" s="2" t="n">
@@ -33746,7 +33746,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C832" s="2" t="n">
@@ -33824,7 +33824,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C834" s="2" t="n">
@@ -33867,7 +33867,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C835" s="2" t="n">
@@ -33910,7 +33910,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C836" s="2" t="n">
@@ -33953,7 +33953,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C837" s="2" t="n">
@@ -33992,7 +33992,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C838" s="2" t="n">
@@ -34031,7 +34031,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C839" s="2" t="n">
@@ -34070,7 +34070,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C840" s="2" t="n">
@@ -34113,7 +34113,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C841" s="2" t="n">
@@ -34156,7 +34156,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C842" s="2" t="n">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C843" s="2" t="n">
@@ -34238,7 +34238,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C844" s="2" t="n">
@@ -34316,7 +34316,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C846" s="2" t="n">
@@ -34359,7 +34359,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C847" s="2" t="n">
@@ -34402,7 +34402,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C848" s="2" t="n">
@@ -34445,7 +34445,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C849" s="2" t="n">
@@ -34484,7 +34484,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C850" s="2" t="n">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C851" s="2" t="n">
@@ -34562,7 +34562,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C852" s="2" t="n">
@@ -34605,7 +34605,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C853" s="2" t="n">
@@ -34648,7 +34648,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C854" s="2" t="n">
@@ -34691,7 +34691,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C855" s="2" t="n">
@@ -34730,7 +34730,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C856" s="2" t="n">
@@ -34773,7 +34773,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C857" s="2" t="n">
@@ -34851,7 +34851,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C859" s="2" t="n">
@@ -34894,7 +34894,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C860" s="2" t="n">
@@ -34937,7 +34937,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C861" s="2" t="n">
@@ -34980,7 +34980,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C862" s="2" t="n">
@@ -35019,7 +35019,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C863" s="2" t="n">
@@ -35058,7 +35058,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C864" s="2" t="n">
@@ -35097,7 +35097,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C865" s="2" t="n">
@@ -35140,7 +35140,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C866" s="2" t="n">
@@ -35183,7 +35183,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C867" s="2" t="n">
@@ -35226,7 +35226,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C868" s="2" t="n">
@@ -35265,7 +35265,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C869" s="2" t="n">
@@ -35347,7 +35347,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C871" s="2" t="n">
@@ -35390,7 +35390,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C872" s="2" t="n">
@@ -35433,7 +35433,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C873" s="2" t="n">
@@ -35476,7 +35476,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C874" s="2" t="n">
@@ -35515,7 +35515,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C875" s="2" t="n">
@@ -35554,7 +35554,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C876" s="2" t="n">
@@ -35593,7 +35593,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C877" s="2" t="n">
@@ -35636,7 +35636,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C878" s="2" t="n">
@@ -35679,7 +35679,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C879" s="2" t="n">
@@ -35722,7 +35722,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C880" s="2" t="n">
@@ -35761,7 +35761,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C881" s="2" t="n">
@@ -35804,7 +35804,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C882" s="2" t="n">
@@ -35882,7 +35882,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C884" s="2" t="n">
@@ -35925,7 +35925,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C885" s="2" t="n">
@@ -35968,7 +35968,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C886" s="2" t="n">
@@ -36011,7 +36011,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C887" s="2" t="n">
@@ -36050,7 +36050,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C888" s="2" t="n">
@@ -36089,7 +36089,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C889" s="2" t="n">
@@ -36128,7 +36128,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C890" s="2" t="n">
@@ -36171,7 +36171,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C891" s="2" t="n">
@@ -36214,7 +36214,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C892" s="2" t="n">
@@ -36257,7 +36257,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C893" s="2" t="n">
@@ -36296,7 +36296,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C894" s="2" t="n">
@@ -36339,7 +36339,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C895" s="2" t="n">
@@ -36417,7 +36417,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C897" s="2" t="n">
@@ -36460,7 +36460,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C898" s="2" t="n">
@@ -36503,7 +36503,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C899" s="2" t="n">
@@ -36546,7 +36546,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C900" s="2" t="n">
@@ -36585,7 +36585,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C901" s="2" t="n">
@@ -36624,7 +36624,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C902" s="2" t="n">
@@ -36663,7 +36663,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C903" s="2" t="n">
@@ -36706,7 +36706,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C904" s="2" t="n">
@@ -36749,7 +36749,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C905" s="2" t="n">
@@ -36792,7 +36792,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C906" s="2" t="n">
@@ -36831,7 +36831,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C907" s="2" t="n">
@@ -36874,7 +36874,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C908" s="2" t="n">
@@ -36952,7 +36952,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C910" s="2" t="n">
@@ -36995,7 +36995,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C911" s="2" t="n">
@@ -37038,7 +37038,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C912" s="2" t="n">
@@ -37081,7 +37081,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C913" s="2" t="n">
@@ -37120,7 +37120,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C914" s="2" t="n">
@@ -37159,7 +37159,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C915" s="2" t="n">
@@ -37198,7 +37198,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C916" s="2" t="n">
@@ -37241,7 +37241,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C917" s="2" t="n">
@@ -37284,7 +37284,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C918" s="2" t="n">
@@ -37327,7 +37327,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C919" s="2" t="n">
@@ -37366,7 +37366,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C920" s="2" t="n">
@@ -37409,7 +37409,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C921" s="2" t="n">
@@ -37487,7 +37487,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C923" s="2" t="n">
@@ -37530,7 +37530,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C924" s="2" t="n">
@@ -37573,7 +37573,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C925" s="2" t="n">
@@ -37616,7 +37616,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C926" s="2" t="n">
@@ -37655,7 +37655,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C927" s="2" t="n">
@@ -37694,7 +37694,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C928" s="2" t="n">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C929" s="2" t="n">
@@ -37776,7 +37776,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C930" s="2" t="n">
@@ -37819,7 +37819,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C931" s="2" t="n">
@@ -37862,7 +37862,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C932" s="2" t="n">
@@ -37901,7 +37901,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C933" s="2" t="n">
@@ -37944,7 +37944,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C934" s="2" t="n">
@@ -38022,7 +38022,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C936" s="2" t="n">
@@ -38065,7 +38065,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C937" s="2" t="n">
@@ -38108,7 +38108,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C938" s="2" t="n">
@@ -38151,7 +38151,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C939" s="2" t="n">
@@ -38190,7 +38190,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C940" s="2" t="n">
@@ -38229,7 +38229,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C941" s="2" t="n">
@@ -38268,7 +38268,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C942" s="2" t="n">
@@ -38311,7 +38311,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C943" s="2" t="n">
@@ -38354,7 +38354,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C944" s="2" t="n">
@@ -38393,7 +38393,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C945" s="2" t="n">
@@ -38436,7 +38436,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C946" s="2" t="n">
@@ -38514,7 +38514,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C948" s="2" t="n">
@@ -38557,7 +38557,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C949" s="2" t="n">
@@ -38600,7 +38600,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C950" s="2" t="n">
@@ -38643,7 +38643,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C951" s="2" t="n">
@@ -38682,7 +38682,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C952" s="2" t="n">
@@ -38721,7 +38721,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C953" s="2" t="n">
@@ -38760,7 +38760,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C954" s="2" t="n">
@@ -38803,7 +38803,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C955" s="2" t="n">
@@ -38846,7 +38846,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C956" s="2" t="n">
@@ -38889,7 +38889,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C957" s="2" t="n">
@@ -38928,7 +38928,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C958" s="2" t="n">
@@ -38971,7 +38971,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C959" s="2" t="n">
@@ -39049,7 +39049,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C961" s="2" t="n">
@@ -39092,7 +39092,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C962" s="2" t="n">
@@ -39135,7 +39135,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C963" s="2" t="n">
@@ -39178,7 +39178,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C964" s="2" t="n">
@@ -39217,7 +39217,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C965" s="2" t="n">
@@ -39256,7 +39256,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C966" s="2" t="n">
@@ -39295,7 +39295,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C967" s="2" t="n">
@@ -39338,7 +39338,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C968" s="2" t="n">
@@ -39381,7 +39381,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C969" s="2" t="n">
@@ -39420,7 +39420,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C970" s="2" t="n">
@@ -39463,7 +39463,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C971" s="2" t="n">
@@ -39541,7 +39541,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C973" s="2" t="n">
@@ -39584,7 +39584,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C974" s="2" t="n">
@@ -39627,7 +39627,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C975" s="2" t="n">
@@ -39670,7 +39670,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C976" s="2" t="n">
@@ -39709,7 +39709,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C977" s="2" t="n">
@@ -39748,7 +39748,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C978" s="2" t="n">
@@ -39787,7 +39787,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C979" s="2" t="n">
@@ -39830,7 +39830,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C980" s="2" t="n">
@@ -39873,7 +39873,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C981" s="2" t="n">
@@ -39916,7 +39916,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C982" s="2" t="n">
@@ -39955,7 +39955,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C983" s="2" t="n">
@@ -39998,7 +39998,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C984" s="2" t="n">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C986" s="2" t="n">
@@ -40119,7 +40119,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C987" s="2" t="n">
@@ -40162,7 +40162,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C988" s="2" t="n">
@@ -40205,7 +40205,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C989" s="2" t="n">
@@ -40244,7 +40244,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C990" s="2" t="n">
@@ -40283,7 +40283,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C991" s="2" t="n">
@@ -40322,7 +40322,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C992" s="2" t="n">
@@ -40365,7 +40365,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C993" s="2" t="n">
@@ -40408,7 +40408,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C994" s="2" t="n">
@@ -40451,7 +40451,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C995" s="2" t="n">
@@ -40490,7 +40490,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C996" s="2" t="n">
@@ -40533,7 +40533,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C997" s="2" t="n">
@@ -40611,7 +40611,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C999" s="2" t="n">
@@ -40654,7 +40654,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1000" s="2" t="n">
@@ -40697,7 +40697,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1001" s="2" t="n">
@@ -40740,7 +40740,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C1002" s="2" t="n">
@@ -40779,7 +40779,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1003" s="2" t="n">
@@ -40818,7 +40818,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1004" s="2" t="n">
@@ -40857,7 +40857,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C1005" s="2" t="n">
